--- a/uploads/student_data1.xlsx
+++ b/uploads/student_data1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marks.r\Documents\REPORT_WRITING_TOOL\Report-writing-tool\.venv\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57106E22-7BBF-4FC8-9B78-43D21FE91E41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97AEF7EF-3968-4BFC-A6DC-FB27990CF293}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{CA61B80E-0392-4D06-90DD-9D43CDF00CCC}"/>
+    <workbookView xWindow="-29784" yWindow="936" windowWidth="23040" windowHeight="12168" xr2:uid="{CA61B80E-0392-4D06-90DD-9D43CDF00CCC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
   <si>
     <t>student_name</t>
   </si>
@@ -111,241 +111,13 @@
   </si>
   <si>
     <t>is a kind, respectful, intelligent, and diligent student and it is a delight to have him in Home Group. His resilient mindset regarding his academic studies has helped him with the pressure which VCE can ensue, and Jue has found motivation in the increased workload and content. This has resulted in a lot of positive academic results, and it is pleasing to see that the conscientious effort he has put into subjects with a heavy workload such as Chinese, has been rewarding. Jue experienced the privilege of attending the China Trip which was a highlight for him and gave him opportunity to connect and develop relationships with friends and peers. While Jue’s participation in extra curricular House activities has been limited, he has involved himself where his interests more align, such as Chapel Band and Musiquest. He also assisted in the 11A Fundraiser. I am delighted that Jue is connected to a church and feels encouraged to practice his faith by the community there, and that he seeks ways to engage personally with his faith. It is lovely to have Jue in Home Group and I pray that he continued to thrive in the year ahead</t>
-  </si>
-  <si>
-    <t>Shiru</t>
-  </si>
-  <si>
-    <t>Loves English and Art, finding these highly enjoyable. Very strong creative and technical skills and ideas in art. Challenged by Mathematics but is improving in her understanding</t>
-  </si>
-  <si>
-    <t>House Athletics and Cross Country, Volley Ball, Chapel team and Duke of Edinburgh, Attended some Art Club sessions</t>
-  </si>
-  <si>
-    <t>Highly engaged with and growing in her faith,  and church communities. Youth. Highly creative. Art and writing</t>
-  </si>
-  <si>
-    <t>Shauna is a lovely, friendly, and respectful young woman who brings such a joyful presence with her in Home Group. She is punctual, polite, engaged and is a positive influence on her peer group. Shauna has made an excellent, smooth transition into VCE and should be proud of the strong results and her hardworking nature. She particularly enjoys the practical components of her learning such as Biology experiments. It is pleasing to see that Shauna has been responsible in balancing her desire for diligence and dedication to her academic studies with extracurricular activities and takes time to prioritise her friendships. It is clear that she values those around her in the way she speaks and treats others with care, respect and good humour. Shuana has made the most of her opportunities to get involved in the events and community at the College. She participated in the Big Sister program, attending Year 7 Camp, Community Dinner, the House Musicquest, Ball Sports, Athletics and Cross Country Carnivals where she performed exceptionally well. She should be very proud of her accomplishments. Shauna has expressed commitment to attending youth and church and expressed a personal faith. Shauna is an absolute treasure and I pray that she continues to prosper in the year ahead.</t>
-  </si>
-  <si>
-    <t>Victoria</t>
-  </si>
-  <si>
-    <t>Enjoys numerous class across a range of diverse subjects including Art, Mathematics, Physical Education and History and seen improvement in  Maths.</t>
-  </si>
-  <si>
-    <t>Interschool Soccer, House Cross Country</t>
-  </si>
-  <si>
-    <t>Soccer, Church and connecting with the young children at church, Loves Art and Sport. Personal faith</t>
-  </si>
-  <si>
-    <t>It is a delight to have Ella in Home Group each morning. She is a polite, caring, respectful student who is a good friend and it is wonderful to see that she has a strong and supportive friendship group around her. Ella is a creative, capable, and motivated student who endeavours to give her best effort in all areas of school life. She has found the transition to VCE both challenging and rewarding. She particularly enjoys being able to focus on subjects of personal interest and its also adjusting to the pace and time involved with her studies. I encourage Ella to recognise the diligent effort she has put in and to keep up her conscientious effort, well done. Having settled into VCE, I encourage Ella to take on challenges to show leadership and responsibilities where they arise. It has been wonderful to see to involved with extra-curricular activities at the College including the Big Sister Program, Fundraising activities, House Swimming, Athletics and Cross Country. I was proud of her excellent performance coming first place. Ella has expressed commitment to Church and Youth, prayer and regular reading of the Bible which reflects an eagerness to gain a deeper understanding of God and a personal desire to maintain a personal relationship with Him. It is a pleasure to be Ella's Home Group teacher, she is lovely.</t>
-  </si>
-  <si>
-    <t>Reuben</t>
-  </si>
-  <si>
-    <t>Enjoyed Engineering and Computing and the stimulation of developing skills and understanding. Also experienced improvement in Maths even though the new content has been challening</t>
-  </si>
-  <si>
-    <t>House Athletics and Cross Country, Volley Ball,</t>
-  </si>
-  <si>
-    <t>Volley Ball, Strength and Conditioning, Church, Youth, friends and connections with people</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">It is wonderful having Josiah in Home Group. He possesses many commendable qualities that contribute positively to class dynamics. He is approachable, good-humoured, respectful, and responds well to advice. Josiah is quite sociable, and he has a strong friendship group who appreciate him, however, at times, he can be distracted by his peers. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Josiah has displayed high levels of performance in areas of personal interest, particularly in Mathematics and Science. His enjoyment of learning extends to subjects with a practical component, such as Media, Wood and Composites and Physical Education. Josiah has participated in House sporting events and been part of the Volleyball club. Josiah </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>continues to be connected to his church community and shared an encouraging d</t>
-    </r>
-  </si>
-  <si>
-    <t>Jayden</t>
-  </si>
-  <si>
-    <t>Really enjoyed Commerce and History, finding the new content stimulating. He has developed confidence in learning the content and skill in these subjects as well as Visual Communication</t>
-  </si>
-  <si>
-    <t>Loves the Athletic Development program, competed in the House Athletics and Cross Country. Science Talent search. Enjoyed the Tasmania trip</t>
-  </si>
-  <si>
-    <t>Enjoys working out, playing sport, talking with friends. Enjoys church and youth.</t>
-  </si>
-  <si>
-    <t>James is a lovely young man who exemplifies qualities of politeness, good-humour, and respect in his interactions with his peers and teachers. His friendly demeanour makes him a pleasure to have in the Home Group and he can always be relied on to participate in morning games and activities. Regarding his studies, James is an intelligent, and conscientious, student with a balanced mindset regarding his subjects, and the pressure VCE an ensue, finding motivation in the challenge. This has resulted in a lot of positive academic results, and it is pleasing to see that the diligent effort he has put into subjects with a heavy workload such as Chinese, has been rewarding. James experienced the privilege of attending the China Trip which was undoubtedly a highlight for him. He also found it a great opportunity to enjoy socialising and connecting with friends. He has also participated in the House Ball Sports, the Big Brother program, helping to mentor the Year 7 boys, Community Dinner, and the Year 11A fundraiser. James has expressed commitment to attending church, feels is connected to this community and expressed a personal faith. James is an absolute treasure and I pray that he continues to prosper in the year ahead.</t>
-  </si>
-  <si>
-    <t>Liang</t>
-  </si>
-  <si>
-    <t>Challenged by Mathematics due to the increase in workload. Loves food studies and more time spent revising for science has contributed to improvement.</t>
-  </si>
-  <si>
-    <t>House Cross Country, I encourage her to involve herself in the wider life of the college</t>
-  </si>
-  <si>
-    <t>Occassionaly attends church, when possible. Enjoys cooking and gaming</t>
-  </si>
-  <si>
-    <t>Hannah is a valued member of the Home Group who often brings a cheery and affable demeanour to class. Hannah has developed some good friendships in her year level and is learning to develop positive interactions with her peers. Hannah has achieved some positive outcomes in many of her subjects. She has continued to find enjoyment and stimulation in learning Chinese, Science and Physical Education and has demonstrated a conscientious approach to these subjects. Beyond the classroom, has limited involvement in the extra curricular activities at the College. She enjoys opportunities to attend church, connecting with the bible and friends.. I hope Hannah enjoys her holiday break and I wish her the very best for Year 9. It has been wonderful to have Hannah in Home Group.</t>
-  </si>
-  <si>
-    <t>Samuel</t>
-  </si>
-  <si>
-    <t>Loves Physical Education, excellent performance across a broad range ofcore and elective subjects. Enjoys Physical Eduction. Challenged by the English workload involved in building skills and understanding. Good perserverance and doing well</t>
-  </si>
-  <si>
-    <t>Volley Ball and House Carnivals. Athletic Development program.</t>
-  </si>
-  <si>
-    <t>Enjoys opportunities to socialise and build friendships. Church, Gym and fitness, music</t>
-  </si>
-  <si>
-    <t>Caleb is a thoughtful, respectful and courteous student who can be relied upon to bring a smile and his warm-hearted nature to Home Group each morning. Caleb is well connected with his peers in Year 8. He is a good friend, and his friends value and enjoy his company. Caleb should be proud of his academic efforts and is it to be commended on his excellent results across numerous subjects, especially considering his Soccer commitments and achievements, well done! He has particularly enjoyed subjects with a focus on being active such as Physical Education and Outdoor Education. Caleb is a strong athlete, and he has represented the College in the CSEN Football and Athletics. It is great to see that this balanced and healthy interest carries over into areas outside of school. Caleb shows mindfulness in his appreciation of opportunities and supportive family members in his life and enjoys being part of his church community. It is wonderful to hear that he is growing in and values his faith. It has been delightful having Caleb in Home Group and I hope he has a fantastic holiday break</t>
-  </si>
-  <si>
-    <t>Bryan</t>
-  </si>
-  <si>
-    <t>Enjoyed Engineering and the stimulation of positive challenges, developing knew skills and understanding. Also experienced improvement in Science but has felt challenged by English. I encourage him to adopt a growth mindset to recognise his potential.</t>
-  </si>
-  <si>
-    <t>Church, serves at kids church, Referee, Gym work outs</t>
-  </si>
-  <si>
-    <t>Caleb is a thoughtful, respectful and courteous student who can be relied upon to bring a smile and his warm-hearted nature to Home Group each morning. Caleb is well connected with his peers in Year 8. He is a good friend, and his friends value and enjoy his company. Caleb should be proud of his academic efforts and is it to be commended on his excellent results across numerous subjects, especially considering his Soccer commitments and achievements, well done! He has particularly enjoyed subjects with a focus on being active such as Physical Education and Outdoor Education. Caleb is a strong athlete, and he has represented the College in the CSEN Football and Athletics. It is great to see that this balanced and healthy interest carries over into areas outside of school. Caleb shows mindfulness in his appreciation of opportunities and supportive family members in his life and enjoys being part of his church community. It is wonderful to hear that he is growing in and values his faith. It has been delightful having Caleb in Home Group and I hope he has a fantastic holiday and start to Year 9.</t>
-  </si>
-  <si>
-    <t>Andy</t>
-  </si>
-  <si>
-    <t>Loves English and Outdoor Education and Environments, and has found learning the new content enjoyable. Dedication to studying for English and French has lead to improvement and excellent academic results. Has found the rigorous content in Science and Mathematics challenging</t>
-  </si>
-  <si>
-    <t>I encourage Andy to embrace some of the diverse extra curricular activities on offer at the College</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Enjoys spending time with friends, attends church and life group, </t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">It is wonderful having Josiah in Home Group. He possesses many commendable qualities that contribute positively to class dynamics. He is approachable, good-humoured, respectful, and responds well to advice. Josiah is quite sociable, and he has a strong friendship group who appreciate him, however, at times, he can be distracted by his peers. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Josiah has displayed high levels of performance in areas of personal interest, particularly in Mathematics and Science. His enjoyment of learning extends to subjects with a practical component, such as Media, Wood and Composites and Physical Education. Josiah has participated in House sporting events and been part of the Volleyball club. Josiah </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>continues to be connected to his church community and shared an encouraging devotional message with his Home Group. I hope Josiah has a lovely holiday break and I wish him the very best for year 9.</t>
-    </r>
-  </si>
-  <si>
-    <t>Ethan</t>
-  </si>
-  <si>
-    <t>Enjoyed Science and Mathematics,developing new skills and understanding and has found learning the new content enjoyable.  Dedication to studying for assessments has helped Ethan improve across his subjects, achieving consistently strong grades.</t>
-  </si>
-  <si>
-    <t>I encourage Ethan to embrace some of the diverse extra curricular activities on offer at the College</t>
-  </si>
-  <si>
-    <t>Workouts, reading, Attends church, enjoys and appreciates his friends</t>
-  </si>
-  <si>
-    <t>It is wonderful having Capri in Home Group. She possesses many commendable qualities that contribute positively to class dynamics, and I have enjoyed all my interactions with her this year. She is kind, appreciative, respectful, and considerate of others. It is evident how Capri’s faith is meaningful to her. In Home Group, Capri is a more reserved student with a quiet confidence, but amongst her friendship group she is social. It is great to see that she has a supportive group of friends who appreciate her. Capri has achieved some great results across many subjects in her assessments this semester and has particularly found her electives highly stimulating. She has also participated in House Athletics. I hope Capri enjoys her holiday break and I wish her the very best for Year 9. It has been a delight to have Capri in Home Group.</t>
-  </si>
-  <si>
-    <t>Colin</t>
-  </si>
-  <si>
-    <t>Loves Physical Education, excellent performance in his electives Health and Sports Science. He has experienced improvement in English, achieving some outstanding results but has felt challenged by the rigourous content in Science and Mathematics but I encourage him perserve.  He has achieved some excellent results throughout the course of this semester.</t>
-  </si>
-  <si>
-    <t>House Athletics and Cross Country</t>
-  </si>
-  <si>
-    <t>Connected to church, serves in the Children's Ministry. Good close network of friends</t>
-  </si>
-  <si>
-    <t>It is wonderful having Nathan in Home Group. He possesses many commendable qualities that contribute positively to class dynamics, and I have enjoyed all my interactions with him this year. He is approachable, respectful and responds well to advice. In Home Group, Nathan is a more reserved student with a quiet confidence, but amongst his friendship group he is more animated and social. It is great to see that he has a strong, supportive group of friends who appreciate him. Nathan has achieved some great results in some of his assessments this semester and has particularly enjoyed developing stronger skills and understanding in Mathematics and Physical Education. He enjoys physical activity and has participated in some of the sports teams at the College. It is great to see that this balanced and healthy interest carries over into extracurricular areas outside of school also, as does his personal faith in God. I pray that Nathan continues to grow in his relationship with God and can enjoy a refreshing holiday break. I wish him the very best for Year 9. It has been a delight to have Nathan in Home Group.</t>
-  </si>
-  <si>
-    <t>Janelle</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Loves Science and Food Studies which are highly enjoyable and personally interesting. Challenged by the new and unfamiliar content and workload in Mathematics and English but has improved in her understanding</t>
-  </si>
-  <si>
-    <t>House Athletics, Cross Country and competitions</t>
-  </si>
-  <si>
-    <t>Enjoyed Tasmania trip and opportunities to build meaningful and fun friendships, Passionate about God, attends church regularly and cooking</t>
-  </si>
-  <si>
-    <t>There is so much to love about Gabrielle. She is a genuine, honest, caring and good-humoured young lady and I have appreciated her open conversation and willingness to look out for others. Gabrielle shows organisation, diligence, and motivation in both academic and extracurricular areas of school life which she is to be commended. Gabrielle</t>
-  </si>
-  <si>
-    <t>Caleb</t>
-  </si>
-  <si>
-    <t>Love Health and enjoyed developing new skills and understanding. He has improved in English, finding the classes highly enjoyable but has been challenged by the quantity of memorization required in science. He has achieved some excellent results throughout the course of this semester.</t>
-  </si>
-  <si>
-    <t>House Carnivals, the Volleyball Team, Chapel team and the Chess Club</t>
-  </si>
-  <si>
-    <t>Connected to church, serves in the Children's Ministry, enjoys his friends and opportunities to socialise, Referee for sport and work out</t>
-  </si>
-  <si>
-    <r>
-      <t>has continued to display high levels of academic performance in many areas and has particularly enjoyed subject with a practical component such as Food Studies, Science and Physical Education. It is positive to hear that Gabrielle has seen improvement in her grades as she has conscientiously practiced skills and revised thoroughly. She has continued to make the most of extracurricular activities and represented the College in sports teams and well as participated in House competitions.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> I pray that Gabrielle continues to pursue and grow in her relationship with God and can enjoy her holiday break. I wish her the very best for Year 9. It has been an absolute joy to have Gabrielle in Home Group.</t>
-    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -371,18 +143,6 @@
       <name val="Aptos"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -404,12 +164,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -417,14 +176,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -759,11 +510,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B70A5B5-45BB-4225-8A4B-0CDB29467C86}">
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D26" sqref="D26"/>
+      <selection pane="topRight" activeCell="A16" sqref="A5:XFD16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -818,13 +569,13 @@
       <c r="F2" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H2" s="1"/>
     </row>
     <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B3" t="s">
@@ -842,7 +593,7 @@
       <c r="F3" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="2" t="s">
         <v>18</v>
       </c>
       <c r="H3" s="1"/>
@@ -866,298 +617,10 @@
       <c r="F4" t="s">
         <v>23</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="4" t="s">
         <v>24</v>
       </c>
       <c r="H4" s="1"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F5" t="s">
-        <v>28</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="H5" s="1"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" t="s">
-        <v>31</v>
-      </c>
-      <c r="E6" t="s">
-        <v>32</v>
-      </c>
-      <c r="F6" t="s">
-        <v>33</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="H6" s="1"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>35</v>
-      </c>
-      <c r="B7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" t="s">
-        <v>36</v>
-      </c>
-      <c r="E7" t="s">
-        <v>37</v>
-      </c>
-      <c r="F7" t="s">
-        <v>38</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="H7" s="1"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>40</v>
-      </c>
-      <c r="B8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" t="s">
-        <v>41</v>
-      </c>
-      <c r="E8" t="s">
-        <v>42</v>
-      </c>
-      <c r="F8" t="s">
-        <v>43</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="H8" s="3"/>
-    </row>
-    <row r="9" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="B9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" t="s">
-        <v>46</v>
-      </c>
-      <c r="E9" t="s">
-        <v>47</v>
-      </c>
-      <c r="F9" t="s">
-        <v>48</v>
-      </c>
-      <c r="G9" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="H9" s="3"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>50</v>
-      </c>
-      <c r="B10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" t="s">
-        <v>51</v>
-      </c>
-      <c r="E10" t="s">
-        <v>52</v>
-      </c>
-      <c r="F10" t="s">
-        <v>53</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="H10" s="1"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>55</v>
-      </c>
-      <c r="B11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" t="s">
-        <v>56</v>
-      </c>
-      <c r="E11" t="s">
-        <v>52</v>
-      </c>
-      <c r="F11" t="s">
-        <v>57</v>
-      </c>
-      <c r="G11" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="H11" s="1"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>59</v>
-      </c>
-      <c r="B12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" t="s">
-        <v>60</v>
-      </c>
-      <c r="E12" t="s">
-        <v>61</v>
-      </c>
-      <c r="F12" t="s">
-        <v>62</v>
-      </c>
-      <c r="G12" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="H12" s="3"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>64</v>
-      </c>
-      <c r="B13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" t="s">
-        <v>65</v>
-      </c>
-      <c r="E13" t="s">
-        <v>66</v>
-      </c>
-      <c r="F13" t="s">
-        <v>67</v>
-      </c>
-      <c r="G13" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="H13" s="2"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>69</v>
-      </c>
-      <c r="B14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" t="s">
-        <v>70</v>
-      </c>
-      <c r="E14" t="s">
-        <v>71</v>
-      </c>
-      <c r="F14" t="s">
-        <v>72</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="H14" s="1"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>74</v>
-      </c>
-      <c r="B15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C15" t="s">
-        <v>20</v>
-      </c>
-      <c r="D15" t="s">
-        <v>75</v>
-      </c>
-      <c r="E15" t="s">
-        <v>76</v>
-      </c>
-      <c r="F15" t="s">
-        <v>77</v>
-      </c>
-      <c r="G15" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="H15" s="1"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>79</v>
-      </c>
-      <c r="B16" t="s">
-        <v>8</v>
-      </c>
-      <c r="C16" t="s">
-        <v>9</v>
-      </c>
-      <c r="D16" t="s">
-        <v>80</v>
-      </c>
-      <c r="E16" t="s">
-        <v>81</v>
-      </c>
-      <c r="F16" t="s">
-        <v>82</v>
-      </c>
-      <c r="G16" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="H16" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
